--- a/data/pubsheetinitial.xlsx
+++ b/data/pubsheetinitial.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\Pub-Xel\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a./Documents/GitHub/Pub-Xel/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4242EEF6-D4D0-4F25-88C9-8736A5813D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E784EC5-42F4-8E4A-8CE7-5F7668D60523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="25605" windowHeight="19905" xr2:uid="{B847B8A5-BA10-4A57-B99B-662F264657D7}"/>
+    <workbookView xWindow="1180" yWindow="1180" windowWidth="25600" windowHeight="19900" xr2:uid="{B847B8A5-BA10-4A57-B99B-662F264657D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -142,7 +142,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -150,14 +150,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Aptos Narrow"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -166,13 +166,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="맑은 고딕"/>
+      <name val="Aptos Narrow"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -186,7 +186,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="맑은 고딕"/>
+      <name val="Aptos Narrow"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -239,7 +239,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -555,7 +555,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -877,14 +877,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="77.25" customWidth="1"/>
-    <col min="3" max="3" width="17.25" customWidth="1"/>
-    <col min="4" max="4" width="9.375" customWidth="1"/>
+    <col min="2" max="2" width="77.1640625" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" customWidth="1"/>
     <col min="5" max="5" width="8.5" customWidth="1"/>
-    <col min="6" max="6" width="54.875" customWidth="1"/>
+    <col min="6" max="6" width="54.83203125" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
     <col min="8" max="8" width="55.5" customWidth="1"/>
   </cols>
@@ -915,7 +915,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="66">
+    <row r="2" spans="1:8" ht="48">
       <c r="A2" s="7">
         <v>9218667</v>
       </c>
@@ -941,7 +941,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="33">
+    <row r="3" spans="1:8" ht="32">
       <c r="A3" s="7">
         <v>11237011</v>
       </c>
@@ -967,7 +967,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="33">
+    <row r="4" spans="1:8" ht="32">
       <c r="A4" s="7">
         <v>26712084</v>
       </c>
@@ -981,7 +981,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8" ht="82.5">
+    <row r="5" spans="1:8" ht="80">
       <c r="A5" s="7">
         <v>33301246</v>
       </c>
@@ -995,7 +995,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" ht="17">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1005,7 +1005,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" ht="17">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1015,7 +1015,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" ht="17">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1025,7 +1025,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" ht="17">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1035,7 +1035,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" ht="17">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1045,7 +1045,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" ht="17">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1055,7 +1055,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" ht="17">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1065,7 +1065,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" ht="17">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1075,7 +1075,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" ht="17">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1085,7 +1085,7 @@
       <c r="G14" s="3"/>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" ht="17">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1095,7 +1095,7 @@
       <c r="G15" s="3"/>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" ht="17">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1105,7 +1105,7 @@
       <c r="G16" s="3"/>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" ht="17">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1115,7 +1115,7 @@
       <c r="G17" s="3"/>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" ht="17">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1125,7 +1125,7 @@
       <c r="G18" s="3"/>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" ht="17">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1135,7 +1135,7 @@
       <c r="G19" s="3"/>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" ht="17">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1145,7 +1145,7 @@
       <c r="G20" s="3"/>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" ht="17">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1155,7 +1155,7 @@
       <c r="G21" s="3"/>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" ht="17">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1165,7 +1165,7 @@
       <c r="G22" s="3"/>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" ht="17">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1175,7 +1175,7 @@
       <c r="G23" s="3"/>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" ht="17">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1185,7 +1185,7 @@
       <c r="G24" s="3"/>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" ht="17">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1195,7 +1195,7 @@
       <c r="G25" s="3"/>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" ht="17">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1205,7 +1205,7 @@
       <c r="G26" s="3"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" ht="17">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1215,7 +1215,7 @@
       <c r="G27" s="3"/>
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" ht="17">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1225,7 +1225,7 @@
       <c r="G28" s="3"/>
       <c r="H28" s="4"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" ht="17">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1235,7 +1235,7 @@
       <c r="G29" s="3"/>
       <c r="H29" s="4"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" ht="17">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1245,7 +1245,7 @@
       <c r="G30" s="3"/>
       <c r="H30" s="4"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" ht="17">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1255,7 +1255,7 @@
       <c r="G31" s="3"/>
       <c r="H31" s="4"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" ht="17">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1265,7 +1265,7 @@
       <c r="G32" s="3"/>
       <c r="H32" s="4"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" ht="17">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1275,7 +1275,7 @@
       <c r="G33" s="3"/>
       <c r="H33" s="4"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" ht="17">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1285,7 +1285,7 @@
       <c r="G34" s="3"/>
       <c r="H34" s="4"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" ht="17">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1295,7 +1295,7 @@
       <c r="G35" s="3"/>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" ht="17">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>

--- a/data/pubsheetinitial.xlsx
+++ b/data/pubsheetinitial.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a./Documents/GitHub/Pub-Xel/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\Pub-Xel\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E784EC5-42F4-8E4A-8CE7-5F7668D60523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54360ED1-DB5E-4D7D-85B3-41A95171CD94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="1180" windowWidth="25600" windowHeight="19900" xr2:uid="{B847B8A5-BA10-4A57-B99B-662F264657D7}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{B847B8A5-BA10-4A57-B99B-662F264657D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -114,23 +114,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>IF2023</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Citation2023</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kostis et al. Prevention of heart failure by antihypertensive drug treatment in older persons with isolated systolic hypertension. SHEP Cooperative Research Group. JAMA (IF: 63.1). 1997 Jul 16;278(3):212-6.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lander et al. Initial sequencing and analysis of the human genome. Nature (IF: 50.5). 2001 Feb 15;409(6822):860-921.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Read Me!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF2024</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Citation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kostis et al. Prevention of heart failure by antihypertensive drug treatment in older persons with isolated systolic hypertension. SHEP Cooperative Research Group. JAMA. 1997 Jul 16;278(3):212-6.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lander et al. Initial sequencing and analysis of the human genome. Nature. 2001 Feb 15;409(6822):860-921.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -138,11 +138,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -150,14 +150,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Aptos Narrow"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -166,13 +166,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Aptos Narrow"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -186,7 +186,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Aptos Narrow"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -239,7 +239,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -545,17 +545,17 @@
     <tableColumn id="11" xr3:uid="{D5E44C4A-D50A-47F0-8D33-ECFCEE90856B}" name="Read Me!" dataDxfId="6"/>
     <tableColumn id="4" xr3:uid="{160D3DAB-F9FF-4AA4-A113-35E06CC898F4}" name="AuthorYear" dataDxfId="5"/>
     <tableColumn id="6" xr3:uid="{BA3630F3-3DEB-4983-974C-9E7C4BF670A5}" name="Journal" dataDxfId="4"/>
-    <tableColumn id="13" xr3:uid="{D7BFAF17-71E4-47A3-813F-0FE6E1C37FD7}" name="IF2023" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{D7BFAF17-71E4-47A3-813F-0FE6E1C37FD7}" name="IF2024" dataDxfId="3"/>
     <tableColumn id="8" xr3:uid="{6D5228AC-5680-43E7-B2A9-5BF630E5F6E8}" name="Title" dataDxfId="2"/>
     <tableColumn id="9" xr3:uid="{849F769E-4259-4D3F-9238-52AD7392C2A6}" name="Abstract" dataDxfId="1"/>
-    <tableColumn id="14" xr3:uid="{71A6D77E-ADB5-4C6A-BD42-EF2C679AD012}" name="Citation2023" dataDxfId="0"/>
+    <tableColumn id="14" xr3:uid="{71A6D77E-ADB5-4C6A-BD42-EF2C679AD012}" name="Citation" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -873,28 +873,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD49A848-A24F-40DC-A73B-1E35FD1FE2FA}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.8125" defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="77.1640625" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" customWidth="1"/>
+    <col min="2" max="2" width="77.1875" customWidth="1"/>
+    <col min="3" max="3" width="17.1875" customWidth="1"/>
+    <col min="4" max="4" width="9.3125" customWidth="1"/>
     <col min="5" max="5" width="8.5" customWidth="1"/>
-    <col min="6" max="6" width="54.83203125" customWidth="1"/>
+    <col min="6" max="6" width="54.8125" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
     <col min="8" max="8" width="55.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -903,7 +903,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
@@ -912,10 +912,10 @@
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="48">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="67.5" x14ac:dyDescent="0.6">
       <c r="A2" s="7">
         <v>9218667</v>
       </c>
@@ -929,7 +929,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="5">
-        <v>63.1</v>
+        <v>55</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>8</v>
@@ -938,10 +938,10 @@
         <v>9</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="32">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A3" s="7">
         <v>11237011</v>
       </c>
@@ -955,7 +955,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="5">
-        <v>50.5</v>
+        <v>48.5</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>5</v>
@@ -964,10 +964,10 @@
         <v>6</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="32">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A4" s="7">
         <v>26712084</v>
       </c>
@@ -981,7 +981,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8" ht="80">
+    <row r="5" spans="1:8" ht="84.4" x14ac:dyDescent="0.6">
       <c r="A5" s="7">
         <v>33301246</v>
       </c>
@@ -995,7 +995,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" ht="17">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1005,7 +1005,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" ht="17">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1015,7 +1015,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" ht="17">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1025,7 +1025,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" ht="17">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1035,7 +1035,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" ht="17">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1045,7 +1045,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" ht="17">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1055,7 +1055,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" ht="17">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1065,7 +1065,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" ht="17">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1075,7 +1075,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" ht="17">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1085,7 +1085,7 @@
       <c r="G14" s="3"/>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" ht="17">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1095,7 +1095,7 @@
       <c r="G15" s="3"/>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" ht="17">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1105,7 +1105,7 @@
       <c r="G16" s="3"/>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" ht="17">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1115,7 +1115,7 @@
       <c r="G17" s="3"/>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" ht="17">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1125,7 +1125,7 @@
       <c r="G18" s="3"/>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" ht="17">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1135,7 +1135,7 @@
       <c r="G19" s="3"/>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" ht="17">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1145,7 +1145,7 @@
       <c r="G20" s="3"/>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" ht="17">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1155,7 +1155,7 @@
       <c r="G21" s="3"/>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:8" ht="17">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1165,7 +1165,7 @@
       <c r="G22" s="3"/>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:8" ht="17">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1175,7 +1175,7 @@
       <c r="G23" s="3"/>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="17">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1185,7 +1185,7 @@
       <c r="G24" s="3"/>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:8" ht="17">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1195,7 +1195,7 @@
       <c r="G25" s="3"/>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="1:8" ht="17">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1205,7 +1205,7 @@
       <c r="G26" s="3"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:8" ht="17">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1215,7 +1215,7 @@
       <c r="G27" s="3"/>
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="1:8" ht="17">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1225,7 +1225,7 @@
       <c r="G28" s="3"/>
       <c r="H28" s="4"/>
     </row>
-    <row r="29" spans="1:8" ht="17">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1235,7 +1235,7 @@
       <c r="G29" s="3"/>
       <c r="H29" s="4"/>
     </row>
-    <row r="30" spans="1:8" ht="17">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1245,7 +1245,7 @@
       <c r="G30" s="3"/>
       <c r="H30" s="4"/>
     </row>
-    <row r="31" spans="1:8" ht="17">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1255,7 +1255,7 @@
       <c r="G31" s="3"/>
       <c r="H31" s="4"/>
     </row>
-    <row r="32" spans="1:8" ht="17">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1265,7 +1265,7 @@
       <c r="G32" s="3"/>
       <c r="H32" s="4"/>
     </row>
-    <row r="33" spans="1:8" ht="17">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1275,7 +1275,7 @@
       <c r="G33" s="3"/>
       <c r="H33" s="4"/>
     </row>
-    <row r="34" spans="1:8" ht="17">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1285,7 +1285,7 @@
       <c r="G34" s="3"/>
       <c r="H34" s="4"/>
     </row>
-    <row r="35" spans="1:8" ht="17">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1295,7 +1295,7 @@
       <c r="G35" s="3"/>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="1:8" ht="17">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
